--- a/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 12.xlsx
+++ b/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 12.xlsx
@@ -385,16 +385,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>178.9662326</v>
+        <v>52.18554000000002</v>
       </c>
       <c r="B2">
-        <v>100.0915872172748</v>
+        <v>22.12811449013223</v>
       </c>
       <c r="C2">
-        <v>93.14777999999991</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>67.21658200000125</v>
+        <v>42.36320000000001</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -402,16 +402,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>143.7501222</v>
+        <v>50.22624</v>
       </c>
       <c r="B3">
-        <v>82.05478832065123</v>
+        <v>21.50796903899575</v>
       </c>
       <c r="C3">
-        <v>90.80374000000003</v>
+        <v>62.38799999999998</v>
       </c>
       <c r="D3">
-        <v>63.98717200000046</v>
+        <v>42.39800000000002</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>123.6416458</v>
+        <v>54.23457999999999</v>
       </c>
       <c r="B4">
-        <v>72.10124384666574</v>
+        <v>26.46160065535719</v>
       </c>
       <c r="C4">
-        <v>88.09227999999975</v>
+        <v>62.09799999999998</v>
       </c>
       <c r="D4">
-        <v>60.60009599999926</v>
+        <v>42.39900000000001</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -436,16 +436,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>121.8803238</v>
+        <v>50.00076000000001</v>
       </c>
       <c r="B5">
-        <v>71.41948632008054</v>
+        <v>22.00777386794039</v>
       </c>
       <c r="C5">
-        <v>87.80385999999987</v>
+        <v>61.9</v>
       </c>
       <c r="D5">
-        <v>60.45992599999962</v>
+        <v>42.3918</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -453,16 +453,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>121.368124</v>
+        <v>51.76234</v>
       </c>
       <c r="B6">
-        <v>69.11661257469312</v>
+        <v>24.47500247322561</v>
       </c>
       <c r="C6">
-        <v>87.63208000000004</v>
+        <v>62.07599999999999</v>
       </c>
       <c r="D6">
-        <v>59.59129399999885</v>
+        <v>42.41600000000001</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -470,16 +470,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>132.9375502</v>
+        <v>57.19212000000002</v>
       </c>
       <c r="B7">
-        <v>68.80509810070674</v>
+        <v>25.34934327720542</v>
       </c>
       <c r="C7">
-        <v>88.64031999999995</v>
+        <v>60.28599999999999</v>
       </c>
       <c r="D7">
-        <v>57.44138800000225</v>
+        <v>42.41080000000001</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>125.6816208</v>
+        <v>50.66374</v>
       </c>
       <c r="B8">
-        <v>61.5227154355544</v>
+        <v>22.9275756824048</v>
       </c>
       <c r="C8">
-        <v>87.70300000000006</v>
+        <v>61.944</v>
       </c>
       <c r="D8">
-        <v>56.73702600000241</v>
+        <v>42.4106</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>123.6033396</v>
+        <v>44.12522000000001</v>
       </c>
       <c r="B9">
-        <v>58.35877967936172</v>
+        <v>16.86543170664777</v>
       </c>
       <c r="C9">
-        <v>84.50788000000017</v>
+        <v>64.44599999999998</v>
       </c>
       <c r="D9">
-        <v>54.67882999999977</v>
+        <v>42.37720000000001</v>
       </c>
       <c r="E9">
         <v>256</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>125.0521598</v>
+        <v>51.69759999999999</v>
       </c>
       <c r="B10">
-        <v>59.98174688038571</v>
+        <v>18.49017005221964</v>
       </c>
       <c r="C10">
-        <v>81.94768000000026</v>
+        <v>62.48599999999997</v>
       </c>
       <c r="D10">
-        <v>53.41526199999937</v>
+        <v>42.43140000000001</v>
       </c>
       <c r="E10">
         <v>512</v>
@@ -538,16 +538,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>121.9399804</v>
+        <v>53.20731999999999</v>
       </c>
       <c r="B11">
-        <v>59.70377826637122</v>
+        <v>23.07312128728145</v>
       </c>
       <c r="C11">
-        <v>80.00678000000001</v>
+        <v>61.874</v>
       </c>
       <c r="D11">
-        <v>52.59470600000103</v>
+        <v>42.418</v>
       </c>
       <c r="E11">
         <v>1024</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>128.4417168</v>
+        <v>52.64466</v>
       </c>
       <c r="B12">
-        <v>60.51749411304309</v>
+        <v>22.49846889155793</v>
       </c>
       <c r="C12">
-        <v>78.35695999999982</v>
+        <v>62.55600000000001</v>
       </c>
       <c r="D12">
-        <v>52.18287600000114</v>
+        <v>42.40820000000002</v>
       </c>
       <c r="E12">
         <v>2048</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>38.4995562</v>
+        <v>53.45103999999998</v>
       </c>
       <c r="B13">
-        <v>37.10135671686476</v>
+        <v>21.18656636546847</v>
       </c>
       <c r="C13">
-        <v>40.21790000000004</v>
+        <v>64.91400000000003</v>
       </c>
       <c r="D13">
-        <v>35.67577600000312</v>
+        <v>42.40660000000003</v>
       </c>
       <c r="E13">
         <v>4096</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>28.3549738</v>
+        <v>59.55586</v>
       </c>
       <c r="B14">
-        <v>9.490327875511648</v>
+        <v>25.99390748772489</v>
       </c>
       <c r="C14">
-        <v>31.14026000000003</v>
+        <v>63.17599999999999</v>
       </c>
       <c r="D14">
-        <v>32.03900799999773</v>
+        <v>42.45660000000002</v>
       </c>
       <c r="E14">
         <v>8192</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>29.45961</v>
+        <v>64.70637999999998</v>
       </c>
       <c r="B15">
-        <v>9.292020498723621</v>
+        <v>32.60458273733311</v>
       </c>
       <c r="C15">
-        <v>27.24327999999994</v>
+        <v>65.92599999999999</v>
       </c>
       <c r="D15">
-        <v>30.20871799999976</v>
+        <v>42.55999999999997</v>
       </c>
       <c r="E15">
         <v>16384</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>33.8020902</v>
+        <v>82.75021999999998</v>
       </c>
       <c r="B16">
-        <v>9.365917656036913</v>
+        <v>41.30850959320125</v>
       </c>
       <c r="C16">
-        <v>25.19199999999996</v>
+        <v>64.17400000000002</v>
       </c>
       <c r="D16">
-        <v>28.7503080000001</v>
+        <v>42.83620000000003</v>
       </c>
       <c r="E16">
         <v>32768</v>
